--- a/src/test/resources/com/visionit/automation/testdata/AutomationPracticeUserData.xlsx
+++ b/src/test/resources/com/visionit/automation/testdata/AutomationPracticeUserData.xlsx
@@ -1,23 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sarang\eclipse-workspace\blank-hybrid-selenium-fw\src\test\resources\com\visionit\automation\testdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sarang\eclipse-workspace\hybrid-selenium-fw\src\test\resources\com\visionit\automation\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38F2CA12-A879-43A1-BAEC-8771C9097AEA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B815AC9-CAC6-423B-B2B8-6C631251D683}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2F7AD8E0-0C99-C54B-9C4C-EF2DF8005F88}"/>
+    <workbookView xWindow="5784" yWindow="2448" windowWidth="17256" windowHeight="9912" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="registration" sheetId="1" r:id="rId1"/>
-    <sheet name="address" sheetId="2" r:id="rId2"/>
-    <sheet name="login" sheetId="3" r:id="rId3"/>
+    <sheet name="loginData" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,91 +25,78 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
-  <si>
-    <t>firstname</t>
-  </si>
-  <si>
-    <t>lastname</t>
-  </si>
-  <si>
-    <t>email</t>
-  </si>
-  <si>
-    <t>password</t>
-  </si>
-  <si>
-    <t>gh</t>
-  </si>
-  <si>
-    <t>username</t>
-  </si>
-  <si>
-    <t>Tom</t>
-  </si>
-  <si>
-    <t>Peter</t>
-  </si>
-  <si>
-    <t>dsfsfsdfds11@gmail.com</t>
-  </si>
-  <si>
-    <t>John</t>
-  </si>
-  <si>
-    <t>Tyson</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+  <si>
+    <t>Username</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>Firstname</t>
+  </si>
+  <si>
+    <t>Lastname</t>
   </si>
   <si>
     <t>Johnson</t>
   </si>
   <si>
-    <t>dsfsfsdfds12@gmail.com</t>
-  </si>
-  <si>
-    <t>dsfsfsdfds13@gmail.com</t>
+    <t>dsfsfsdfds111@gmail.com</t>
+  </si>
+  <si>
+    <t>Tomm</t>
+  </si>
+  <si>
+    <t>Peterr</t>
+  </si>
+  <si>
+    <t>Abcd@#$</t>
+  </si>
+  <si>
+    <t>dsfsfsdfds122@gmail.com</t>
+  </si>
+  <si>
+    <t>Abcd@#$!</t>
+  </si>
+  <si>
+    <t>dsfsfsdfds133@gmail.com</t>
+  </si>
+  <si>
+    <t>Patric</t>
+  </si>
+  <si>
+    <t>ABcd@#$!</t>
+  </si>
+  <si>
+    <t>SrNo</t>
+  </si>
+  <si>
+    <t>Johnn</t>
+  </si>
+  <si>
+    <t>Tysonn</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="12"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -138,20 +123,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -184,7 +164,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -196,7 +176,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -243,23 +223,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -295,23 +258,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -463,126 +409,91 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5513BE4F-FA93-4A49-9C39-EB74A7581F69}">
-  <dimension ref="A1:D5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="228" zoomScaleNormal="228" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="8.796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="3">
-        <v>123456</v>
-      </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="D3" s="3">
-        <v>123456</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="3">
-        <v>123456</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="4"/>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{4CC99213-86C3-8549-B159-20BA9BFA3D50}"/>
-    <hyperlink ref="D2" r:id="rId2" display="dev@123" xr:uid="{58C9F092-4F84-DC4E-8900-E9F41F88C171}"/>
-    <hyperlink ref="C3" r:id="rId3" xr:uid="{651BA5B6-1BC7-FF4E-85C6-E1A94E64D6C2}"/>
-    <hyperlink ref="C4" r:id="rId4" xr:uid="{45B2E8F6-50D4-3942-BDF5-CFA6F7E8139F}"/>
-    <hyperlink ref="D3" r:id="rId5" display="dev@123" xr:uid="{EF220012-82A3-40CC-A132-F7FF6873F09F}"/>
-    <hyperlink ref="D4" r:id="rId6" display="dev@123" xr:uid="{5F738ECA-CE18-4178-B5A1-6B337C0C9485}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9849394F-9170-2044-A5F4-DFB1AB9A02E2}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{035F1AFB-7FE3-F746-94A1-287CA1D26910}">
-  <dimension ref="A1:B1"/>
-  <sheetViews>
-    <sheetView zoomScale="249" zoomScaleNormal="249" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" t="s">
-        <v>3</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>